--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>17/01/21</t>
+  </si>
+  <si>
+    <t>רבים</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -566,9 +575,25 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="3" spans="1:7">
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.65" r="4" spans="1:7">
       <c r="D4" s="6" t="n"/>

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,57 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>17/01/21</t>
-  </si>
-  <si>
-    <t>רבים</t>
-  </si>
-  <si>
-    <t>plural</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -198,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -515,109 +468,139 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>17/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>רבים</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>plural</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -629,7 +612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -641,7 +624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -652,7 +635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,43 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24A1E9-36E3-45CD-B72D-41590A6D8B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>17/01/21</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,48 +198,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,142 +514,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>17/01/21</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>רבים</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>plural</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="9" t="n"/>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -636,6 +634,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24A1E9-36E3-45CD-B72D-41590A6D8B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4197B4-3ECC-4241-8A12-46C213E8AD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -52,16 +52,16 @@
     <t>parenthood</t>
   </si>
   <si>
-    <t>17/01/21</t>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>לכפול</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
     <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
     <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -548,10 +548,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -572,14 +572,30 @@
         <v>9</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
+      <c r="G2" s="12">
+        <v>210117</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="9"/>
+      <c r="G3" s="12">
+        <v>210214</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
@@ -634,6 +650,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,87 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4197B4-3ECC-4241-8A12-46C213E8AD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -198,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -514,7 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
@@ -522,95 +471,121 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210117</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210214</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
-        <v>210117</v>
-      </c>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
-        <v>210214</v>
-      </c>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6">
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -650,6 +625,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -545,9 +613,9 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -572,24 +640,10 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="9" t="n"/>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -601,7 +655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -613,7 +667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -624,7 +678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -613,7 +545,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -643,7 +575,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -655,7 +587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -667,7 +599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -545,7 +613,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -572,10 +640,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -587,7 +654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -599,7 +666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -640,6 +640,7 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -545,7 +613,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -575,7 +643,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -587,7 +655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -599,7 +667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -613,7 +545,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -640,9 +572,10 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -654,7 +587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -666,7 +599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -677,7 +610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -545,7 +613,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -572,10 +640,121 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>392</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>393</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>405</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש *****c to</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>413</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -587,7 +766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -599,7 +778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -613,7 +545,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -752,9 +684,66 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>425</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>כותרת r*****h</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -766,7 +755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,7 +778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -545,7 +613,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -642,7 +710,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>לכבוש *****c to</t>
+          <t>לכבוש to c*****</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -740,10 +808,9 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -755,7 +822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -767,7 +834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,41 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7948E447-BFF0-42D8-9698-FC47EE48CDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>כותרת r*****h</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>לכבוש to *****c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,119 +234,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,290 +553,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>195</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>392</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>393</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>405</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to c*****</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>413</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>425</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>426</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>כותרת r*****h</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -822,7 +770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -834,7 +782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -845,7 +793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,126 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7948E447-BFF0-42D8-9698-FC47EE48CDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>כותרת r*****h</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>לכבוש to *****c</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -234,60 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -553,212 +527,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>195</v>
-      </c>
-      <c r="B2" s="8">
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
+        <v>196</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
-        <v>210117</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210214</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>196</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>392</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
-        <v>210214</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>392</v>
-      </c>
-      <c r="B4">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>393</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>393</v>
-      </c>
-      <c r="B5">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>405</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to *****c</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>405</v>
-      </c>
-      <c r="B6">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>413</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>413</v>
-      </c>
-      <c r="B7">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>425</v>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>425</v>
-      </c>
-      <c r="B8">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>426</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>כותרת r*****h</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -770,7 +822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -782,7 +834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -793,7 +845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -613,7 +545,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -808,9 +740,10 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -822,7 +755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -834,7 +767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -845,7 +778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,41 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC063A-64EE-4B46-9C43-6B11ECB73BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>לכבוש to *****c</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>כותרת h*****r</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +237,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,288 +553,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>195</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>392</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>393</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>405</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to *****c</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>413</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>425</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>426</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>כותרת r*****h</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -779,6 +794,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,126 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC063A-64EE-4B46-9C43-6B11ECB73BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>לכבוש to *****c</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>כותרת h*****r</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -237,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -553,209 +459,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>195</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210117</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>196</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
-        <v>210117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>196</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>392</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>392</v>
-      </c>
-      <c r="B4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>393</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>393</v>
-      </c>
-      <c r="B5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>405</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>405</v>
-      </c>
-      <c r="B6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to *****c</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>413</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>413</v>
-      </c>
-      <c r="B7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>425</v>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>425</v>
-      </c>
-      <c r="B8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>426</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****r</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -794,6 +779,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -545,7 +613,7 @@
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
@@ -740,10 +808,9 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -755,7 +822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -767,7 +834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,41 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2459302-9207-4B5A-8A31-0E35B8EF8CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>לכבוש to *****c</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>כותרת h*****r</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>סתיו *****a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,119 +240,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,290 +559,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>195</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>392</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>393</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>405</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to *****c</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>413</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>425</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>426</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****r</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -822,7 +784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -834,7 +796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -845,7 +807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,132 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2459302-9207-4B5A-8A31-0E35B8EF8CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>לכבוש to *****c</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>כותרת h*****r</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>סתיו *****a</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -243,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -559,217 +459,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>195</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210117</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>196</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
-        <v>210117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>196</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>392</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>392</v>
-      </c>
-      <c r="B4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>393</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>393</v>
-      </c>
-      <c r="B5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>405</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>405</v>
-      </c>
-      <c r="B6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to *****c</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>413</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>413</v>
-      </c>
-      <c r="B7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>425</v>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>425</v>
-      </c>
-      <c r="B8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>426</v>
-      </c>
-      <c r="B9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****r</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>573</v>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>סתיו *****a</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>autumn</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200526</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -808,6 +807,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,95 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>לכבוש to *****c</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>כותרת h*****r</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>סתיו *****a</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>200526</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +238,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,312 +555,230 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>196</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>392</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>393</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>405</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to *****c</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>413</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>425</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>426</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****r</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>573</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>סתיו *****a</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>autumn</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200526</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -783,7 +790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -795,7 +802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -806,7 +813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,95 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>לכבוש to *****c</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>כותרת h*****r</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>סתיו *****a</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>200526</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -238,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -553,232 +464,343 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>590</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>סוגריים, הורות</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>parentheses, parenthood</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>392</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>393</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="n">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>405</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="n">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to *****c</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>413</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="n">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>425</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="n">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>426</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****r</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>573</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7"/>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>סתיו *****a</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>autumn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -790,7 +812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -802,7 +824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -813,7 +835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -574,7 +642,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -671,7 +739,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>לכבוש to *****c</t>
+          <t>לכבוש to c</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -797,10 +865,9 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -812,7 +879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -824,7 +891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -835,7 +902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -642,7 +574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -865,9 +797,10 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -879,7 +812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -891,7 +824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -902,7 +835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,104 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>סוגריים, הורות</t>
+  </si>
+  <si>
+    <t>parentheses, parenthood</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>לכבוש to c</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>כותרת h*****r</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>סתיו *****a</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>200526</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +247,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,341 +564,251 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>590</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>סוגריים, הורות</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>parentheses, parenthood</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>392</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>393</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>405</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to c</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>413</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>425</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>426</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****r</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>573</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>סתיו *****a</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>autumn</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200526</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -812,7 +820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -824,7 +832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -835,7 +843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -468,7 +468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -559,12 +559,12 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>סוגריים, הורות</t>
+          <t>סוגריים; הורות</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>parentheses, parenthood</t>
+          <t>parentheses; parenthood</t>
         </is>
       </c>
       <c r="F3" s="6" t="n"/>

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -574,7 +642,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -800,7 +868,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -812,7 +880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -824,7 +892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -835,7 +903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -642,7 +574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -868,7 +800,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -880,7 +812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -892,7 +824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -903,7 +835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -574,7 +642,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -797,10 +865,9 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -812,7 +879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -824,7 +891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -835,7 +902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -642,7 +574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -865,9 +797,10 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -879,7 +812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -891,7 +824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -902,7 +835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -574,7 +642,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -797,10 +865,177 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>מחוץ לבית / מבנה</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>outdoors</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>פסק זמן *****</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>פעוט</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>toddler</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>לקחת על עצמו on ***** *****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>to take on</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>טינה</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>grudge</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>עליז</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>cheerful</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -812,7 +1047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -824,7 +1059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -835,7 +1070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -642,7 +574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
@@ -1033,9 +965,66 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>אלינו</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>to us</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>לנו, אותנו</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1047,7 +1036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1070,7 +1059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1021,7 +1089,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1089,6 +1021,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928E347-16F8-4B82-A768-985498B2CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -124,6 +118,9 @@
     <t>200815</t>
   </si>
   <si>
+    <t>פסק זמן *****t</t>
+  </si>
+  <si>
     <t>timeout</t>
   </si>
   <si>
@@ -167,35 +164,33 @@
   </si>
   <si>
     <t>us</t>
-  </si>
-  <si>
-    <t>פסק זמן *****t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -309,60 +304,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -628,25 +614,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D14" pane="bottomLeft" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,11 +659,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -685,16 +675,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
         <v>590</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -706,16 +696,16 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="n"/>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -727,16 +717,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12">
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
         <v>392</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -752,11 +742,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
         <v>393</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -772,11 +762,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
         <v>405</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -792,11 +782,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
         <v>413</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -812,11 +802,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
         <v>425</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -832,11 +822,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
         <v>426</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -852,11 +842,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
         <v>573</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -872,11 +862,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
         <v>1037</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -892,149 +882,150 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:7">
+      <c r="A13" t="n">
         <v>1038</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:7">
+      <c r="A14" t="n">
         <v>1047</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="n">
         <v>1048</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="n">
         <v>1049</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="n">
         <v>1050</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="n">
         <v>1103</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="n">
         <v>1104</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1046,7 +1037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1058,7 +1049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1069,7 +1060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,161 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>סוגריים; הורות</t>
-  </si>
-  <si>
-    <t>parentheses; parenthood</t>
-  </si>
-  <si>
-    <t>200530</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>לכבוש to c</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>כותרת h*****r</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>סתיו *****a</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>200526</t>
-  </si>
-  <si>
-    <t>מחוץ לבית / מבנה</t>
-  </si>
-  <si>
-    <t>outdoors</t>
-  </si>
-  <si>
-    <t>200815</t>
-  </si>
-  <si>
-    <t>פסק זמן *****t</t>
-  </si>
-  <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>פעוט</t>
-  </si>
-  <si>
-    <t>toddler</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>לקחת על עצמו on ***** *****</t>
-  </si>
-  <si>
-    <t>to take on</t>
-  </si>
-  <si>
-    <t>טינה</t>
-  </si>
-  <si>
-    <t>grudge</t>
-  </si>
-  <si>
-    <t>עליז</t>
-  </si>
-  <si>
-    <t>cheerful</t>
-  </si>
-  <si>
-    <t>אלינו</t>
-  </si>
-  <si>
-    <t>to us</t>
-  </si>
-  <si>
-    <t>200818</t>
-  </si>
-  <si>
-    <t>לנו, אותנו</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -621,411 +466,565 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D14" pane="bottomLeft" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="n">
         <v>590</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>סוגריים; הורות</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>parentheses; parenthood</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>392</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>393</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>405</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to c</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>413</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>425</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>426</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****r</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>573</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>סתיו *****a</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>autumn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>1037</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>מחוץ לבית / מבנה</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>outdoors</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>1038</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>פסק זמן *****t</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>1047</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>פעוט</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>toddler</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>1048</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>לקחת על עצמו on ***** *****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>to take on</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>1049</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>טינה</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>grudge</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>1050</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>עליז</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>cheerful</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>1103</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>אלינו</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>to us</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>1104</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>לנו, אותנו</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1037,7 +1036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1049,7 +1048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1060,7 +1059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,161 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>הורות</t>
+  </si>
+  <si>
+    <t>parenthood</t>
+  </si>
+  <si>
+    <t>סוגריים; הורות</t>
+  </si>
+  <si>
+    <t>parentheses; parenthood</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>לכפול</t>
+  </si>
+  <si>
+    <t>to multiply</t>
+  </si>
+  <si>
+    <t>מרכאות</t>
+  </si>
+  <si>
+    <t>quotation marks</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>הפשטה *****a</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>לכבוש to c</t>
+  </si>
+  <si>
+    <t>to conquer</t>
+  </si>
+  <si>
+    <t>כיכר *****p</t>
+  </si>
+  <si>
+    <t>plaza</t>
+  </si>
+  <si>
+    <t>היררכיה</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>כותרת h*****r</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>סתיו *****a</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>200526</t>
+  </si>
+  <si>
+    <t>מחוץ לבית / מבנה r*****</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>200815</t>
+  </si>
+  <si>
+    <t>פסק זמן *****t</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>פעוט</t>
+  </si>
+  <si>
+    <t>toddler</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>לקחת על עצמו on ***** *****</t>
+  </si>
+  <si>
+    <t>to take on</t>
+  </si>
+  <si>
+    <t>טינה</t>
+  </si>
+  <si>
+    <t>grudge</t>
+  </si>
+  <si>
+    <t>עליז</t>
+  </si>
+  <si>
+    <t>cheerful</t>
+  </si>
+  <si>
+    <t>אלינו</t>
+  </si>
+  <si>
+    <t>to us</t>
+  </si>
+  <si>
+    <t>200818</t>
+  </si>
+  <si>
+    <t>לנו, אותנו</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +304,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,565 +621,411 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D13" pane="bottomLeft" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>הורות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>parenthood</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>590</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>סוגריים; הורות</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>parentheses; parenthood</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>לכפול</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>to multiply</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>392</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>מרכאות</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>quotation marks</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>393</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>הפשטה *****a</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>405</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש to c</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>to conquer</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>413</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****p</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>plaza</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>425</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>היררכיה</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>hierarchy</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>426</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****r</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>573</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>סתיו *****a</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>autumn</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200526</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="n">
         <v>1037</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>מחוץ לבית / מבנה r*****</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>outdoor</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200815</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>1038</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>פסק זמן *****t</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200815</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>1047</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>פעוט</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>toddler</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>1048</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>לקחת על עצמו on ***** *****</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>to take on</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>1049</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>טינה</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>grudge</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>1050</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>עליז</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>cheerful</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>1103</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>אלינו</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>to us</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200818</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>1104</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>לנו, אותנו</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200818</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1036,7 +1037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1048,7 +1049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,161 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>הורות</t>
-  </si>
-  <si>
-    <t>parenthood</t>
-  </si>
-  <si>
-    <t>סוגריים; הורות</t>
-  </si>
-  <si>
-    <t>parentheses; parenthood</t>
-  </si>
-  <si>
-    <t>200530</t>
-  </si>
-  <si>
-    <t>לכפול</t>
-  </si>
-  <si>
-    <t>to multiply</t>
-  </si>
-  <si>
-    <t>מרכאות</t>
-  </si>
-  <si>
-    <t>quotation marks</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>הפשטה *****a</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>לכבוש to c</t>
-  </si>
-  <si>
-    <t>to conquer</t>
-  </si>
-  <si>
-    <t>כיכר *****p</t>
-  </si>
-  <si>
-    <t>plaza</t>
-  </si>
-  <si>
-    <t>היררכיה</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>כותרת h*****r</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>סתיו *****a</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>200526</t>
-  </si>
-  <si>
-    <t>מחוץ לבית / מבנה r*****</t>
-  </si>
-  <si>
-    <t>outdoor</t>
-  </si>
-  <si>
-    <t>200815</t>
-  </si>
-  <si>
-    <t>פסק זמן *****t</t>
-  </si>
-  <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>פעוט</t>
-  </si>
-  <si>
-    <t>toddler</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>לקחת על עצמו on ***** *****</t>
-  </si>
-  <si>
-    <t>to take on</t>
-  </si>
-  <si>
-    <t>טינה</t>
-  </si>
-  <si>
-    <t>grudge</t>
-  </si>
-  <si>
-    <t>עליז</t>
-  </si>
-  <si>
-    <t>cheerful</t>
-  </si>
-  <si>
-    <t>אלינו</t>
-  </si>
-  <si>
-    <t>to us</t>
-  </si>
-  <si>
-    <t>200818</t>
-  </si>
-  <si>
-    <t>לנו, אותנו</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -621,411 +466,565 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D13" pane="bottomLeft" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>195</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>הורות</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>parenthood</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210117</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="n">
         <v>590</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>סוגריים; הורות</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>parentheses; parenthood</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>196</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>לכפול</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>to multiply</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>392</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>מרכאות</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>quotation marks</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>393</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>הפשטה *****a</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>405</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש to c</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>to conquer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>413</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****p</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>plaza</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>425</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>היררכיה</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>hierarchy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>426</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****r</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>573</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>סתיו *****a</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>autumn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>1037</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>מחוץ לבית / מבנה r*****</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>outdoor</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>1038</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>פסק זמן *****t</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>1047</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>פעוט</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>toddler</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>1048</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>לקחת על עצמו on ***** *****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>to take on</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>1049</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>טינה</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>grudge</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>1050</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>עליז</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>cheerful</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>1103</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>אלינו</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>to us</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>1104</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>לנו, אותנו</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1037,7 +1036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1049,7 +1048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1060,7 +1059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -643,7 +711,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>הפשטה *****a</t>
+          <t>ה**********ה *****a</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -699,7 +767,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>כיכר *****p</t>
+          <t>כ**** *****p</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -755,7 +823,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>כותרת h*****r</t>
+          <t>כ*****ת h*****r</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -783,7 +851,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>סתיו *****a</t>
+          <t>ס***** *****a</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -811,7 +879,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>מחוץ לבית / מבנה r*****</t>
+          <t>מ****** לבית / מבנה r*******</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -839,7 +907,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>פסק זמן *****t</t>
+          <t>פ******זמן *****t</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">

--- a/Questions/English/Myq Words.xlsx
+++ b/Questions/English/Myq Words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,8 +467,8 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -711,7 +643,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>ה**********ה *****a</t>
+          <t>הפשטה *****a</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -767,7 +699,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>כ**** *****p</t>
+          <t>כיכר ****p</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -823,7 +755,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>כ*****ת h*****r</t>
+          <t>כותרת h*****r</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -851,7 +783,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>ס***** *****a</t>
+          <t>סתיו *****a</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -879,7 +811,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>מ****** לבית / מבנה r*******</t>
+          <t>מחוץ לבית/מבנה r*****</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -907,7 +839,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>פ******זמן *****t</t>
+          <t>פסק זמן *****t</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -963,7 +895,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>לקחת על עצמו on ***** *****</t>
+          <t>לקחת על עצמו n* **** **</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
